--- a/9 класс/график функции.xlsx
+++ b/9 класс/график функции.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lot-w\Documents\lot\teacher\9 класс\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Лектор\lot\teacher\9 класс\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9195"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,79 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
-  <si>
-    <t>Антонова Елена </t>
-  </si>
-  <si>
-    <t>Белик Арсений </t>
-  </si>
-  <si>
-    <t>Зубрий Серафим </t>
-  </si>
-  <si>
-    <t>Карпухин Степан </t>
-  </si>
-  <si>
-    <t>Купцов Семен </t>
-  </si>
-  <si>
-    <t>Любцова Елизавета </t>
-  </si>
-  <si>
-    <t>Мареева Елизавета </t>
-  </si>
-  <si>
-    <t>Нескуб Дмитрий </t>
-  </si>
-  <si>
-    <t>Постников Михаил </t>
-  </si>
-  <si>
-    <t>Прокопенко Елизавета </t>
-  </si>
-  <si>
-    <t>Ульева Елизавета </t>
-  </si>
-  <si>
-    <t>Шкляр Петр </t>
-  </si>
-  <si>
-    <t>Вадюхина Екатерина </t>
-  </si>
-  <si>
-    <t>Викторов Серафим </t>
-  </si>
-  <si>
-    <t>Ерёмин Данила </t>
-  </si>
-  <si>
-    <t>Зимина Анна </t>
-  </si>
-  <si>
-    <t>Мареев Кирилл </t>
-  </si>
-  <si>
-    <t>Петров Максим </t>
-  </si>
-  <si>
-    <t>Сопина Анастасия </t>
-  </si>
-  <si>
-    <t>Студеникина Елизавета </t>
-  </si>
-  <si>
-    <t>Тимошина Анна </t>
-  </si>
-  <si>
-    <t>Туманов Константин </t>
-  </si>
-  <si>
-    <t>Фурсов Глеб </t>
-  </si>
-  <si>
-    <t>Чемагина Анастасия </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>3x**2 +2*x +3</t>
   </si>
@@ -198,13 +126,52 @@
   </si>
   <si>
     <t xml:space="preserve">3. визуально по графику  определить есть у функции корни или нет </t>
+  </si>
+  <si>
+    <t>Бушкова Мария </t>
+  </si>
+  <si>
+    <t>Волошанина  София </t>
+  </si>
+  <si>
+    <t>Гумбин Андрей </t>
+  </si>
+  <si>
+    <t>Лисейцев Василий </t>
+  </si>
+  <si>
+    <t>Осипов Артем </t>
+  </si>
+  <si>
+    <t>Разумилова Александра </t>
+  </si>
+  <si>
+    <t>Семенов Федор </t>
+  </si>
+  <si>
+    <t>Смирнова Мария </t>
+  </si>
+  <si>
+    <t>Сопельняк Арина </t>
+  </si>
+  <si>
+    <t>Ульев Юрий </t>
+  </si>
+  <si>
+    <t>Федин Николай </t>
+  </si>
+  <si>
+    <t>Черняев Дмитрий </t>
+  </si>
+  <si>
+    <t>Возведение в степень в Excel: х^2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -250,6 +217,101 @@
       <name val="Arial Black"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242729"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFAAAAAA"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3FA149"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFEE1E1E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9.35"/>
+      <color rgb="FF242729"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9.35"/>
+      <color rgb="FF888888"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFA40800"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF555555"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="8.8000000000000007"/>
+      <color rgb="FFEE1E1E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -260,7 +322,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -283,11 +345,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA40800"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA40800"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -305,8 +399,61 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="12" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -585,51 +732,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ27"/>
+  <dimension ref="A1:AJ163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32" style="3" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
     <col min="6" max="12" width="4" bestFit="1" customWidth="1"/>
     <col min="13" max="18" width="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="2.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="26" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="26" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="2" bestFit="1" customWidth="1"/>
     <col min="29" max="34" width="3" bestFit="1" customWidth="1"/>
     <col min="35" max="36" width="4" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="3.21875" customWidth="1"/>
+    <col min="37" max="37" width="3.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
+      <c r="B1" s="11" t="s">
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>1</v>
+      <c r="B2" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="F2" s="6">
         <v>-15</v>
@@ -725,18 +872,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>2</v>
+      <c r="B3" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
@@ -770,118 +917,121 @@
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>3</v>
+      <c r="B4" s="11" t="s">
+        <v>37</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
+      <c r="B5" s="11" t="s">
+        <v>38</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>5</v>
+      <c r="B6" s="11" t="s">
+        <v>39</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.4">
+        <v>19</v>
+      </c>
+      <c r="E6" s="26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
+      <c r="B7" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" ht="25.8" x14ac:dyDescent="0.5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>7</v>
+      <c r="B8" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="G8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
+      <c r="B9" s="11" t="s">
+        <v>42</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>9</v>
+      <c r="B10" s="11" t="s">
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>10</v>
+      <c r="B11" s="11" t="s">
+        <v>44</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="12" spans="1:36" ht="19.8" customHeight="1" x14ac:dyDescent="0.4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
+      <c r="B12" s="11" t="s">
+        <v>45</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
@@ -889,7 +1039,7 @@
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="E13" s="8"/>
@@ -899,154 +1049,524 @@
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="2"/>
       <c r="E14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="B15" s="2"/>
       <c r="E15" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B16" s="2"/>
       <c r="C16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
         <v>33</v>
       </c>
-      <c r="E16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
+      <c r="B17" s="2"/>
       <c r="C17" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>3</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>14</v>
-      </c>
+      <c r="B18" s="2"/>
       <c r="C18" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>4</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>5</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B20" s="2"/>
       <c r="C20" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>6</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
+      <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>7</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>8</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B23" s="2"/>
       <c r="C23" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>9</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>10</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="B25" s="2"/>
       <c r="C25" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>11</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C26" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>12</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C27" s="3" t="s">
-        <v>46</v>
-      </c>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B32" s="19"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="20"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="21"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="22"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" s="21"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B37" s="21"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B38" s="21"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B39" s="21"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B40" s="22"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B41" s="23"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B42" s="21"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B43" s="21"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B44" s="21"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B45" s="21"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B46" s="21"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B47" s="21"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B48" s="21"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B49" s="21"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B50" s="22"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B51" s="21"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B52" s="21"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B53" s="21"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B54" s="24"/>
+    </row>
+    <row r="55" spans="2:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="9"/>
+    </row>
+    <row r="56" spans="2:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B56" s="10"/>
+    </row>
+    <row r="57" spans="2:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B57" s="10"/>
+    </row>
+    <row r="58" spans="2:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="10"/>
+    </row>
+    <row r="59" spans="2:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="10"/>
+    </row>
+    <row r="60" spans="2:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="10"/>
+    </row>
+    <row r="61" spans="2:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B61" s="10"/>
+    </row>
+    <row r="62" spans="2:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B62" s="10"/>
+    </row>
+    <row r="63" spans="2:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="10"/>
+    </row>
+    <row r="64" spans="2:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="10"/>
+    </row>
+    <row r="65" spans="2:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B65" s="10"/>
+    </row>
+    <row r="66" spans="2:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B66" s="10"/>
+    </row>
+    <row r="67" spans="2:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B67" s="10"/>
+    </row>
+    <row r="68" spans="2:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="10"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B69" s="11"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B70" s="11"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B71" s="11"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B72" s="11"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B73" s="11"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B74" s="11"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B75" s="11"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B76" s="11"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B77" s="11"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B78" s="11"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B79" s="11"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B80" s="11"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B81" s="11"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B82" s="14"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B83" s="14"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B84" s="14"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B85" s="14"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B86" s="14"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B87" s="14"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B88" s="14"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B89" s="14"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B90" s="14"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B91" s="14"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B92" s="14"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B93" s="14"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B94" s="14"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B95" s="14"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B96" s="14"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B97" s="14"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B98" s="14"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B99" s="14"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B100" s="12"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B101" s="13"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B102" s="13"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B103" s="13"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B104" s="13"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B105" s="13"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B106" s="13"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B107" s="13"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B108" s="13"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B109" s="13"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B110" s="13"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B111" s="13"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B112" s="13"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B113" s="12"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B114" s="14"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B115" s="12"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B116" s="14"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B117" s="14"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B118" s="14"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B119" s="14"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B120" s="14"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B121" s="14"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B122" s="14"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B123" s="14"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B124" s="14"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B125" s="14"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B126" s="14"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B127" s="14"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B128" s="14"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B129" s="14"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B130" s="14"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B131" s="14"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B132" s="14"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B133" s="14"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B134" s="14"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B135" s="14"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B136" s="14"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B137" s="14"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B138" s="14"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B139" s="14"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B140" s="14"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B141" s="14"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B142" s="14"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B143" s="14"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B144" s="14"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B145" s="14"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B146" s="14"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B147" s="14"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B148" s="14"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B149" s="14"/>
+    </row>
+    <row r="150" spans="2:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B150" s="15"/>
+    </row>
+    <row r="151" spans="2:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B151" s="15"/>
+    </row>
+    <row r="152" spans="2:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B152" s="15"/>
+    </row>
+    <row r="153" spans="2:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B153" s="15"/>
+    </row>
+    <row r="154" spans="2:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B154" s="17"/>
+    </row>
+    <row r="155" spans="2:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B155" s="17"/>
+    </row>
+    <row r="156" spans="2:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B156" s="25"/>
+    </row>
+    <row r="157" spans="2:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B157" s="15"/>
+    </row>
+    <row r="158" spans="2:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B158" s="15"/>
+    </row>
+    <row r="159" spans="2:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B159" s="17"/>
+    </row>
+    <row r="160" spans="2:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B160" s="16"/>
+    </row>
+    <row r="161" spans="2:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B161" s="15"/>
+    </row>
+    <row r="162" spans="2:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B162" s="15"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B163" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="1">
